--- a/static/HSK3.xlsx
+++ b/static/HSK3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgiessing/git/vocabApp/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgiessing/Box/IBM Systems/git/vocabApp/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94940C61-9F41-0548-A094-4DB78F33236B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7C74F5-8C6A-2447-9B37-E805B6F3FB4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5619,7 +5619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C601"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A578" workbookViewId="0">
       <selection activeCell="A602" sqref="A602:XFD1048576"/>
     </sheetView>
   </sheetViews>
